--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -467,12 +467,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Software development</t>
+          <t>Python family</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Topic</t>
+          <t>Snake</t>
         </is>
       </c>
     </row>
@@ -482,12 +482,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Java</t>
+          <t>Pythons</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Programming language</t>
+          <t>Snake</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Computer programming</t>
+          <t>CPython</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -512,12 +512,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Application programming interface</t>
+          <t>python</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kind of software</t>
+          <t>Topic</t>
         </is>
       </c>
     </row>
